--- a/biology/Botanique/Podocarpus_elatus/Podocarpus_elatus.xlsx
+++ b/biology/Botanique/Podocarpus_elatus/Podocarpus_elatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Podocarpus elatus est une espèce de conifères endémique des côtes est de l'Australie, de l'est de la Nouvelle-Galles du Sud et du Queensland.
 C'est un arbre atteignant 30 à 35 mètres de haut pour un diamètre à la base de 1,5 mètre. L'écorce, d'un brun foncé, est souvent fissurée. Les feuilles sont lancéolées et mesurent 5 à 25 centimètres de long sur 6 à 18 millimètres de large. Les cônes sont violet foncé avec une base charnue de 2 à 2,5 centimètres de diamètre portant une seule graine sphérique ou ovoïde de un centimètre de diamètre. La partie charnue est comestible et utilisée comme condiment.
-Il peut être cultivé comme bonsai[1].
+Il peut être cultivé comme bonsai.
 </t>
         </is>
       </c>
